--- a/Users.xlsx
+++ b/Users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -48,24 +48,6 @@
     <t>Mykolaienko Ivan</t>
   </si>
   <si>
-    <t>Kulyk Tamara</t>
-  </si>
-  <si>
-    <t>Mysnyk Oksana</t>
-  </si>
-  <si>
-    <t>Turenko Roman</t>
-  </si>
-  <si>
-    <t>Martyniuk Olena</t>
-  </si>
-  <si>
-    <t>Admin54321</t>
-  </si>
-  <si>
-    <t>Klymenko 222</t>
-  </si>
-  <si>
     <t>Abramova222</t>
   </si>
   <si>
@@ -78,16 +60,10 @@
     <t>Mykolaienko444</t>
   </si>
   <si>
-    <t>Kulyk222</t>
-  </si>
-  <si>
-    <t>Mysnyk333</t>
-  </si>
-  <si>
-    <t>Turenko222</t>
-  </si>
-  <si>
-    <t>Martyniuk222</t>
+    <t>Klymenko222</t>
+  </si>
+  <si>
+    <t>hidden</t>
   </si>
 </sst>
 </file>
@@ -447,14 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
@@ -484,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -498,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -512,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -526,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -540,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -554,66 +531,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
